--- a/biology/Médecine/Toxidermie/Toxidermie.xlsx
+++ b/biology/Médecine/Toxidermie/Toxidermie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La toxidermie est l'ensemble des lésions cutanées dues à des réactions à des médicaments appliqués sur la peau, ou ingérés, administrés de manière parentérale ou inhalés. Ces réactions, parfois allergiques, se manifestent par des formes très différentes de lésions, plus ou moins persistantes ou susceptibles de réapparaître périodiquement ou d'accompagner des problèmes respiratoire (œdème de Quincke).
 La personne qui en est victime peut se sensibiliser et déclencher des réactions plus vives ou plus rapides en cas de nouvelle prescription du médicament (ou d'une molécule très proche).
@@ -515,11 +527,13 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l’enfant, en présence d'une infection, il est difficile de savoir si les symptômes sont induits par le médicament ou par l’infection (par exemple pour la rubéole ou scarlatine)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l’enfant, en présence d'une infection, il est difficile de savoir si les symptômes sont induits par le médicament ou par l’infection (par exemple pour la rubéole ou scarlatine).
 Les lésions aiguës sont des plaques érythémateuses et œdémateuses ou érythématobulleuse bien définies, souvent rouge sombre à brun, parfois surmontées d'une bulle contenant de la lymphe (certaines armes chimiques (ypérite, lewisite.. ont des effets proches).Les toxidermies bulleuses se traduisent par un syndrome de Lyell, qui en est une des variantes les plus graves et étendues, souvent accompagnée d'un état de choc pour le patient.
-Des sites Internet spécialisés peuvent guider le praticien[2].
+Des sites Internet spécialisés peuvent guider le praticien.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Délais d'apparition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont souvent de 7 à 30 jours après la prise de médicaments s'il s'agit d'une sensibilisation primaire.
 3 à 5 jours suffisent lors d'un second contact avec le médicament.
@@ -580,7 +596,9 @@
           <t>Lésions dermatologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'érythème pigmenté fixe est une toxidermie pure.
 Érythème noueux
@@ -618,7 +636,9 @@
           <t>Maladies dermatologiques induites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acné
 Lupus érythémateux
